--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Grey Petrel_Antipodes Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Grey Petrel_Antipodes Islands.xlsx
@@ -4118,13 +4118,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{905830FD-7BCA-4D36-81A9-CAF5EBA0BEED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B865B84F-3D9A-48C1-9C38-D12695907AC4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{753C6DFA-DCAB-4539-A988-6D4EE69AED17}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF6D8324-D6C1-481C-AC2D-50BE6930F454}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{259E649D-D311-4C6B-8795-0E21C065E122}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{554FA159-FCEB-4A40-934D-FD9A0560C4FF}"/>
 </file>